--- a/5分钟MA策略.xlsx
+++ b/5分钟MA策略.xlsx
@@ -4,21 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14700" windowHeight="7515" activeTab="1"/>
+    <workbookView windowWidth="14700" windowHeight="7515" tabRatio="746" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
     <sheet name="ETH" sheetId="2" r:id="rId2"/>
     <sheet name="ETC" sheetId="3" r:id="rId3"/>
+    <sheet name="EOS" sheetId="4" r:id="rId4"/>
+    <sheet name="LTC" sheetId="8" r:id="rId5"/>
+    <sheet name="BCH" sheetId="5" r:id="rId6"/>
+    <sheet name="BSV" sheetId="6" r:id="rId7"/>
+    <sheet name="XRP" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>止损/止盈</t>
+  </si>
+  <si>
+    <t>注：30倍 三分之一仓，ETC最高 33.33 倍</t>
   </si>
 </sst>
 </file>
@@ -26,10 +34,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,66 +56,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,14 +104,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +124,75 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,193 +201,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,54 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,6 +448,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -498,10 +512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -510,141 +524,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1007,7 +1030,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1175,10 +1198,10 @@
       <c r="B5">
         <v>4.378211</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>8.023858</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>7.941025</v>
       </c>
       <c r="E5">
@@ -1213,10 +1236,10 @@
       <c r="B6">
         <v>4.70863</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>8.629409</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>8.070341</v>
       </c>
       <c r="E6">
@@ -1251,10 +1274,10 @@
       <c r="B7">
         <v>5.39008</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>11.36493</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>8.831545</v>
       </c>
       <c r="E7">
@@ -1560,8 +1583,8 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1670,7 +1693,7 @@
       <c r="H3">
         <v>6.691947</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>10.62276</v>
       </c>
       <c r="J3">
@@ -1705,19 +1728,19 @@
       <c r="G4">
         <v>8.702676</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>10.92418</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>15.4091</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>12.83639</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>12.83639</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>10.56368</v>
       </c>
     </row>
@@ -1731,7 +1754,7 @@
       <c r="C5">
         <v>5.81045</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>10.13275</v>
       </c>
       <c r="E5">
@@ -1743,19 +1766,19 @@
       <c r="G5">
         <v>8.484315</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>13.66675</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>11.60674</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>12.83228</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>12.51148</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>10.18759</v>
       </c>
     </row>
@@ -1781,19 +1804,19 @@
       <c r="G6">
         <v>8.767859</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>14.21911</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>16.36937</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>15.18546</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>14.80582</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>12.05579</v>
       </c>
     </row>
@@ -1819,16 +1842,16 @@
       <c r="G7">
         <v>9.123891</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>11.49492</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>12.94554</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>12.00926</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>11.70903</v>
       </c>
       <c r="L7">
@@ -1845,31 +1868,31 @@
       <c r="C8">
         <v>8.037421</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>12.58675</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>10.5109</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>14.42689</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>13.01124</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>16.78278</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>16.78278</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>11.3996</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>16.38459</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>13.33607</v>
       </c>
     </row>
@@ -1904,7 +1927,7 @@
       <c r="J9">
         <v>8.437915</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="5">
         <v>8.226966</v>
       </c>
       <c r="L9">
@@ -2111,16 +2134,641 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="9.375" style="1"/>
+    <col min="7" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="9.375" style="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10.31087</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14.48917</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13.51773</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.714223</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.558267</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6.804646</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.565736</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.875553</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.053077</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.766907</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.374359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10.08665</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.95791</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.7456</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13.00402</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9.933909</v>
+      </c>
+      <c r="G3" s="2">
+        <v>16.01784</v>
+      </c>
+      <c r="H3" s="2">
+        <v>16.93974</v>
+      </c>
+      <c r="I3" s="2">
+        <v>15.62879</v>
+      </c>
+      <c r="J3" s="1">
+        <v>13.75225</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12.46489</v>
+      </c>
+      <c r="L3" s="1">
+        <v>11.90676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.57041</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12.28619</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11.26328</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13.59266</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.38358</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16.7429</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17.70654</v>
+      </c>
+      <c r="I4" s="2">
+        <v>16.33625</v>
+      </c>
+      <c r="J4" s="2">
+        <v>14.95472</v>
+      </c>
+      <c r="K4" s="3">
+        <v>12.22293</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11.67564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17.20799</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.343056</v>
+      </c>
+      <c r="D5" s="3">
+        <v>13.19194</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.980892</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.131849</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12.29406</v>
+      </c>
+      <c r="H5" s="3">
+        <v>13.00165</v>
+      </c>
+      <c r="I5" s="3">
+        <v>11.99546</v>
+      </c>
+      <c r="J5" s="3">
+        <v>11.2676</v>
+      </c>
+      <c r="K5" s="3">
+        <v>12.57283</v>
+      </c>
+      <c r="L5" s="3">
+        <v>12.00986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13.66721</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.457011</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.50895</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15.20984</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12.86839</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14.04036</v>
+      </c>
+      <c r="H6" s="3">
+        <v>14.84846</v>
+      </c>
+      <c r="I6" s="3">
+        <v>13.69935</v>
+      </c>
+      <c r="J6" s="3">
+        <v>12.49846</v>
+      </c>
+      <c r="K6" s="3">
+        <v>14.09413</v>
+      </c>
+      <c r="L6" s="3">
+        <v>13.46305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.140701</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.981596</v>
+      </c>
+      <c r="D7" s="2">
+        <v>19.92602</v>
+      </c>
+      <c r="E7" s="2">
+        <v>16.30319</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14.79683</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15.04964</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15.91583</v>
+      </c>
+      <c r="I7" s="3">
+        <v>14.68412</v>
+      </c>
+      <c r="J7" s="3">
+        <v>13.65347</v>
+      </c>
+      <c r="K7" s="3">
+        <v>14.55645</v>
+      </c>
+      <c r="L7" s="1">
+        <v>13.90466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.000988</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11.16977</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17.13433</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14.22859</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12.02069</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14.145</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8.901349</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8.212481</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6.831282</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.149947</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6.523989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.952911</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.210097</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18.27702</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15.47114</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13.20898</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14.28157</v>
+      </c>
+      <c r="H9" s="2">
+        <v>15.10355</v>
+      </c>
+      <c r="I9" s="1">
+        <v>13.9347</v>
+      </c>
+      <c r="J9" s="1">
+        <v>13.38496</v>
+      </c>
+      <c r="K9" s="2">
+        <v>18.45977</v>
+      </c>
+      <c r="L9" s="2">
+        <v>17.63321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.952911</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.210097</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.195848</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.701113</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.519363</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.749218</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.849227</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.183537</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.529107</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8.927553</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.985394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.021196</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.307455</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.385374</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.491677</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.646996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.427484</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6.53929</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5.795066</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7.299378</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9.980782</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9.193178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.080081</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.204683</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.548809</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.637693</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.176155</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.552758</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.666744</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5.908014</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.441647</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10.17531</v>
+      </c>
+      <c r="L12" s="1">
+        <v>9.372356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.642781</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.204683</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.521117</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.390096</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.176155</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.668097</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.166993</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.457565</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11.10958</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10.63346</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.794348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.642781</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.204683</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.521117</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.390096</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.176155</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.668097</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9.166993</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.457565</v>
+      </c>
+      <c r="J14" s="1">
+        <v>11.10958</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10.63346</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4.949594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/5分钟MA策略.xlsx
+++ b/5分钟MA策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14700" windowHeight="7515" tabRatio="746" activeTab="4"/>
+    <workbookView windowWidth="14700" windowHeight="7515" tabRatio="746" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t>止损/止盈</t>
   </si>
@@ -34,10 +34,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,102 +55,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +79,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,13 +191,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -219,13 +219,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +261,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,31 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,13 +321,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,97 +375,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,30 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,15 +418,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +446,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -496,11 +474,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,145 +512,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -661,6 +661,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,9 +671,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1198,10 @@
       <c r="B5">
         <v>4.378211</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>8.023858</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>7.941025</v>
       </c>
       <c r="E5">
@@ -1236,10 +1236,10 @@
       <c r="B6">
         <v>4.70863</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>8.629409</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>8.070341</v>
       </c>
       <c r="E6">
@@ -1274,10 +1274,10 @@
       <c r="B7">
         <v>5.39008</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>11.36493</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>8.831545</v>
       </c>
       <c r="E7">
@@ -1693,7 +1693,7 @@
       <c r="H3">
         <v>6.691947</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>10.62276</v>
       </c>
       <c r="J3">
@@ -1728,19 +1728,19 @@
       <c r="G4">
         <v>8.702676</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>10.92418</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>15.4091</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>12.83639</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>12.83639</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>10.56368</v>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       <c r="C5">
         <v>5.81045</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>10.13275</v>
       </c>
       <c r="E5">
@@ -1766,19 +1766,19 @@
       <c r="G5">
         <v>8.484315</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>13.66675</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>11.60674</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>12.83228</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>12.51148</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>10.18759</v>
       </c>
     </row>
@@ -1804,19 +1804,19 @@
       <c r="G6">
         <v>8.767859</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>14.21911</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>16.36937</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>15.18546</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>14.80582</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>12.05579</v>
       </c>
     </row>
@@ -1842,16 +1842,16 @@
       <c r="G7">
         <v>9.123891</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>11.49492</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>12.94554</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>12.00926</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>11.70903</v>
       </c>
       <c r="L7">
@@ -1868,31 +1868,31 @@
       <c r="C8">
         <v>8.037421</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>12.58675</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>10.5109</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>14.42689</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>13.01124</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>16.78278</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>16.78278</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>11.3996</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>16.38459</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>13.33607</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="J9">
         <v>8.437915</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>8.226966</v>
       </c>
       <c r="L9">
@@ -2137,552 +2137,552 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A1" sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="9.375" style="1"/>
-    <col min="7" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="9.375" style="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="4"/>
+    <col min="5" max="6" width="9.375" style="4"/>
+    <col min="7" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="9.375" style="4"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>-20</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>-30</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>-40</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>-50</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>-60</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>-70</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>-80</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="4">
         <v>-90</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="4">
         <v>-100</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="4">
         <v>-110</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="4">
         <v>-120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>10.31087</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>14.48917</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>13.51773</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>8.714223</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>6.558267</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>6.804646</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>6.565736</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>4.875553</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>4.053077</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>8.766907</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>8.374359</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>30</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>10.08665</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>11.95791</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>10.7456</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>13.00402</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>9.933909</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>16.01784</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>16.93974</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>15.62879</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>13.75225</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>12.46489</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>11.90676</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>40</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>10.57041</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>12.28619</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>11.26328</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>13.59266</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>10.38358</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>16.7429</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>17.70654</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>16.33625</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>14.95472</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>12.22293</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>11.67564</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>50</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>17.20799</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>7.343056</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>13.19194</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>9.980892</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>8.131849</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>12.29406</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>13.00165</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>11.99546</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>11.2676</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>12.57283</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>12.00986</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>60</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>13.66721</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>6.457011</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>17.50895</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>15.20984</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>12.86839</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>14.04036</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>14.84846</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>13.69935</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>12.49846</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>14.09413</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>13.46305</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>70</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>7.140701</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>6.981596</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>19.92602</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>16.30319</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>14.79683</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>15.04964</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>15.91583</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>14.68412</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>13.65347</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <v>14.55645</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>13.90466</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>80</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>6.000988</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>11.16977</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>17.13433</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>14.22859</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>12.02069</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>14.145</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>8.901349</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>8.212481</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>6.831282</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>7.149947</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>6.523989</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>90</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>2.952911</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>4.210097</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>18.27702</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>15.47114</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>13.20898</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>14.28157</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>15.10355</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>13.9347</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>13.38496</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>18.45977</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="3">
         <v>17.63321</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>100</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>2.952911</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>4.210097</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>8.195848</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>6.701113</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>5.519363</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>5.749218</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>5.849227</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>5.183537</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>6.529107</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>8.927553</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>8.985394</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>110</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>3.021196</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>4.307455</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>8.385374</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>7.491677</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>5.646996</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>6.427484</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>6.53929</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>5.795066</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>7.299378</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>9.980782</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>9.193178</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>120</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>3.080081</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>2.204683</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>8.548809</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>7.637693</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>3.176155</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>6.552758</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>6.666744</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>5.908014</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>7.441647</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>10.17531</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>9.372356</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>130</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>3.642781</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>2.204683</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>4.521117</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>9.390096</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>3.176155</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>8.668097</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <v>9.166993</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>8.457565</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>11.10958</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>10.63346</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>9.794348</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>140</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>3.642781</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>2.204683</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>4.521117</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>9.390096</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>3.176155</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>8.668097</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <v>9.166993</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>8.457565</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>11.10958</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>10.63346</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>4.949594</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2696,14 +2696,552 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9.375" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.549172</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.889473</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11.52776</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.739627</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.06392</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.921604</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.375004</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.399484</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.287249</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.184024</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3.823371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.654938</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11.86856</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13.99192</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.562191</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6.704137</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.469909</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.133381</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.023901</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.642581</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.974207</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6.159791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10.26241</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.36469</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11.80828</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.918555</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.866031</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.299378</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.759202</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5.380339</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.901609</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.014514</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6.203496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.093446</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.65729</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13.55639</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11.85948</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9.436275</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.659325</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.360011</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.847452</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7.768597</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.015773</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.207853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.034633</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.742936</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.23619</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.863161</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.803303</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.072442</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.027958</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.448293</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6.006824</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.424728</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6.020255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.910585</v>
+      </c>
+      <c r="C7" s="3">
+        <v>15.05637</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14.01397</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.01706</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.933869</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8.074732</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.023946</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.645567</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6.63065</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.988101</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6.645474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11.13033</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.478958</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.940886</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.587371</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.841383</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.633116</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.594969</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.565564</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.779868</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5.219765</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.79279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17.76456</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15.68271</v>
+      </c>
+      <c r="D9" s="3">
+        <v>17.01526</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.47125</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.889785</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.804898</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.902866</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.095822</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7.661903</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7.096841</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6.564809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.307493</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.60473</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.588856</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.393092</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7.739885</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.521139</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6.631195</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7.971343</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.326906</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7.712801</v>
+      </c>
+      <c r="L10" s="1">
+        <v>7.134591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.960941</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11.79883</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9.95869</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.754862</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.38224</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.088718</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8.421067</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10.36985</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9.032759</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8.366596</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.739374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.93944</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.518745</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9.337893</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.021029</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.11439</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.313629</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.008132</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.379892</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.781564</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7.212414</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6.671718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.067463</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7.518745</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9.550764</v>
+      </c>
+      <c r="E13" s="3">
+        <v>17.4965</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18.07934</v>
+      </c>
+      <c r="G13" s="3">
+        <v>17.86455</v>
+      </c>
+      <c r="H13" s="3">
+        <v>19.82742</v>
+      </c>
+      <c r="I13" s="3">
+        <v>19.35533</v>
+      </c>
+      <c r="J13" s="1">
+        <v>13.41461</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12.75226</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12.10669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.102773</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.889461</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11.44388</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.3073</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.68396</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10.9053</v>
+      </c>
+      <c r="H14" s="1">
+        <v>14.40195</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14.05905</v>
+      </c>
+      <c r="J14" s="1">
+        <v>13.71614</v>
+      </c>
+      <c r="K14" s="1">
+        <v>13.37324</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.03034</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2714,7 +3252,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/5分钟MA策略.xlsx
+++ b/5分钟MA策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14700" windowHeight="7515" tabRatio="746" activeTab="3"/>
+    <workbookView windowWidth="14880" windowHeight="7980" tabRatio="746" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>止损/止盈</t>
   </si>
   <si>
     <t>注：30倍 三分之一仓，ETC最高 33.33 倍</t>
+  </si>
+  <si>
+    <t>注：30倍 五分之一仓，ETC最高 33.33 倍</t>
+  </si>
+  <si>
+    <t>注：20倍 五分之一仓，BSV最高 20 倍</t>
   </si>
 </sst>
 </file>
@@ -34,9 +40,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -49,7 +55,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,76 +175,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,56 +191,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -213,7 +225,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +345,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,133 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,25 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,71 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,6 +451,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,137 +536,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +683,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1213,10 @@
       <c r="B5">
         <v>4.378211</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>8.023858</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>7.941025</v>
       </c>
       <c r="E5">
@@ -1236,10 +1251,10 @@
       <c r="B6">
         <v>4.70863</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>8.629409</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>8.070341</v>
       </c>
       <c r="E6">
@@ -1274,10 +1289,10 @@
       <c r="B7">
         <v>5.39008</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>11.36493</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>8.831545</v>
       </c>
       <c r="E7">
@@ -1693,7 +1708,7 @@
       <c r="H3">
         <v>6.691947</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>10.62276</v>
       </c>
       <c r="J3">
@@ -1728,19 +1743,19 @@
       <c r="G4">
         <v>8.702676</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>10.92418</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>15.4091</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>12.83639</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>12.83639</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>10.56368</v>
       </c>
     </row>
@@ -1754,7 +1769,7 @@
       <c r="C5">
         <v>5.81045</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>10.13275</v>
       </c>
       <c r="E5">
@@ -1766,19 +1781,19 @@
       <c r="G5">
         <v>8.484315</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>13.66675</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>11.60674</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>12.83228</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>12.51148</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>10.18759</v>
       </c>
     </row>
@@ -1804,19 +1819,19 @@
       <c r="G6">
         <v>8.767859</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>14.21911</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>16.36937</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>15.18546</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>14.80582</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>12.05579</v>
       </c>
     </row>
@@ -1842,16 +1857,16 @@
       <c r="G7">
         <v>9.123891</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>11.49492</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>12.94554</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>12.00926</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>11.70903</v>
       </c>
       <c r="L7">
@@ -1868,31 +1883,31 @@
       <c r="C8">
         <v>8.037421</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>12.58675</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>10.5109</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>14.42689</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>13.01124</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>16.78278</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>16.78278</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>11.3996</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>16.38459</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>13.33607</v>
       </c>
     </row>
@@ -2134,17 +2149,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="9" style="4"/>
     <col min="5" max="6" width="9.375" style="4"/>
-    <col min="7" max="11" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="10.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="4"/>
+    <col min="10" max="11" width="9" style="4"/>
     <col min="12" max="12" width="9.375" style="4"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
@@ -2244,13 +2262,13 @@
       <c r="F3" s="4">
         <v>9.933909</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <v>16.01784</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>16.93974</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>15.62879</v>
       </c>
       <c r="J3" s="4">
@@ -2285,13 +2303,13 @@
       <c r="G4" s="4">
         <v>16.7429</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>17.70654</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>16.33625</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>14.95472</v>
       </c>
       <c r="K4" s="4">
@@ -2305,7 +2323,7 @@
       <c r="A5" s="4">
         <v>50</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>17.20799</v>
       </c>
       <c r="C5" s="4">
@@ -2349,10 +2367,10 @@
       <c r="C6" s="4">
         <v>6.457011</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>17.50895</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>15.20984</v>
       </c>
       <c r="F6" s="4">
@@ -2387,19 +2405,19 @@
       <c r="C7" s="4">
         <v>6.981596</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>19.92602</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>16.30319</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>14.79683</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>15.04964</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>15.91583</v>
       </c>
       <c r="I7" s="4">
@@ -2425,7 +2443,7 @@
       <c r="C8" s="4">
         <v>11.16977</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>17.13433</v>
       </c>
       <c r="E8" s="4">
@@ -2463,10 +2481,10 @@
       <c r="C9" s="4">
         <v>4.210097</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>18.27702</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>15.47114</v>
       </c>
       <c r="F9" s="4">
@@ -2475,7 +2493,7 @@
       <c r="G9" s="4">
         <v>14.28157</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>15.10355</v>
       </c>
       <c r="I9" s="4">
@@ -2484,10 +2502,10 @@
       <c r="J9" s="4">
         <v>13.38496</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>18.45977</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="5">
         <v>17.63321</v>
       </c>
     </row>
@@ -2681,9 +2699,546 @@
         <v>4.949594</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-40</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-50</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-60</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-70</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-80</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-90</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-110</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11.27717</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11.27717</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12.89289</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9.754321</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.345948</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.191235</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6.314165</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5.125016</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.458138</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7.008422</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6.653624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.812762</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10.20501</v>
+      </c>
+      <c r="D20" s="1">
+        <v>11.36408</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13.02473</v>
+      </c>
+      <c r="F20" s="1">
+        <v>11.34572</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15.92353</v>
+      </c>
+      <c r="H20" s="2">
+        <v>15.19151</v>
+      </c>
+      <c r="I20" s="2">
+        <v>14.47671</v>
+      </c>
+      <c r="J20" s="1">
+        <v>13.36616</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8.968235</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8.514221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.609033</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10.97778</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12.3937</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14.17791</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12.35025</v>
+      </c>
+      <c r="G21" s="1">
+        <v>17.33336</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16.53653</v>
+      </c>
+      <c r="I21" s="2">
+        <v>15.75845</v>
+      </c>
+      <c r="J21" s="2">
+        <v>14.95293</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.859756</v>
+      </c>
+      <c r="L21" s="1">
+        <v>8.411235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7.95824</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.570292</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10.06272</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.947914</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.508389</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.705103</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.17994</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.724169</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6.496378</v>
+      </c>
+      <c r="K22" s="1">
+        <v>4.387624</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4.058695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5.800416</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5.768943</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7.116928</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7.617909</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.621237</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.276367</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5.076994</v>
+      </c>
+      <c r="I23" s="1">
+        <v>4.754714</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4.211284</v>
+      </c>
+      <c r="K23" s="1">
+        <v>4.763443</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4.40634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6.313945</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.492906</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.814502</v>
+      </c>
+      <c r="E24" s="2">
+        <v>9.691422</v>
+      </c>
+      <c r="F24" s="2">
+        <v>9.314069</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9.395349</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8.754985</v>
+      </c>
+      <c r="I24" s="1">
+        <v>8.199229</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.866557</v>
+      </c>
+      <c r="K24" s="1">
+        <v>4.873276</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4.50794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.585439</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10.47556</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6.448601</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.699014</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5.355399</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5.279357</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.805121</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4.392953</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.111917</v>
+      </c>
+      <c r="K25" s="1">
+        <v>3.053051</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2.751757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.398605</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.244017</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4.594594</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.880176</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3.411873</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.993835</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3.635076</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.32327</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3.185906</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.789816</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5.355769</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.398605</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.244017</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.594594</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.880176</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.411873</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.993835</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.635076</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.32327</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3.185906</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.464815</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3.329787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.455434</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4.314981</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.671421</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.210293</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.468923</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.333622</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.94434</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.606007</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.239178</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3.759595</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3.385465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4">
+        <v>120</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4.270003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.715052</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.73767</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.270003</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.322021</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.395082</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4.000279</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.657148</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3.285116</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3.812914</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.433478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.927791</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.715052</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.031775</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4.9007</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.322021</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.278869</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4.919074</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4.606818</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2.113332</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5.049341</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4.666519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4">
+        <v>140</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.927791</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.715052</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.031775</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.9007</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.322021</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5.278869</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4.919074</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4.606818</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2.113332</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5.049341</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2.888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2698,546 +3253,546 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="9.375" style="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="9.375" style="4"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>-20</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>-30</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="4">
         <v>-40</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="4">
         <v>-50</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="4">
         <v>-60</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="4">
         <v>-70</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="4">
         <v>-80</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="4">
         <v>-90</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="4">
         <v>-100</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="4">
         <v>-110</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="4">
         <v>-120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>6.549172</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>9.889473</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>11.52776</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>8.739627</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>6.06392</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>3.921604</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>3.375004</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>5.399484</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>3.287249</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>3.184024</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>3.823371</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>30</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>7.654938</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>11.86856</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>13.99192</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>8.562191</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>6.704137</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>5.469909</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>5.133381</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>6.023901</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>6.642581</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>5.974207</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>6.159791</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>40</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>10.26241</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>10.36469</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>11.80828</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>7.918555</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>6.866031</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>5.299378</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>4.759202</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>5.380339</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>4.901609</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>4.014514</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>6.203496</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>50</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>9.093446</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>9.65729</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>13.55639</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>11.85948</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>9.436275</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>7.659325</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>7.360011</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>8.847452</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>7.768597</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>7.015773</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>7.207853</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>60</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>9.034633</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>9.742936</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>10.23619</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>7.863161</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>6.803303</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>7.072442</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="4">
         <v>7.027958</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>8.448293</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>6.006824</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>5.424728</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>6.020255</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>70</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>7.910585</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>15.05637</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>14.01397</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>11.01706</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>9.933869</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>8.074732</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>8.023946</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>9.645567</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>6.63065</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>5.988101</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>6.645474</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>80</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>11.13033</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>8.478958</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>7.940886</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>7.587371</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>6.841383</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>5.633116</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>5.594969</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>6.565564</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>5.779868</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>5.219765</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.79279</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>90</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>17.76456</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>15.68271</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>17.01526</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>7.47125</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>6.889785</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>5.804898</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>5.902866</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>7.095822</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>7.661903</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>7.096841</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>6.564809</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>100</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>7.307493</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>10.60473</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>8.588856</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>8.393092</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>7.739885</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>6.521139</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="4">
         <v>6.631195</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>7.971343</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>8.326906</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>7.712801</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>7.134591</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>110</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>7.960941</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>11.79883</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>9.95869</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>9.754862</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>9.38224</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>8.088718</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>8.421067</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>10.36985</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>9.032759</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>8.366596</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>7.739374</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>120</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>7.93944</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>7.518745</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>9.337893</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>9.021029</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>9.11439</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>8.313629</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>9.008132</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>8.379892</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>7.781564</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>7.212414</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>6.671718</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>130</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>8.067463</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>7.518745</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>9.550764</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>17.4965</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>18.07934</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>17.86455</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>19.82742</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <v>19.35533</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>13.41461</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>12.75226</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>12.10669</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>140</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>8.102773</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>7.889461</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>11.44388</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>11.3073</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>11.68396</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>10.9053</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <v>14.40195</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>14.05905</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>13.71614</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>13.37324</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>13.03034</v>
       </c>
     </row>
@@ -3250,14 +3805,550 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.719055</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.649824</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.135706</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.543811</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.757903</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.97743</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.016469</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.866233</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.876978</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.193631</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.189118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.171571</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.06372</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.797665</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.426765</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.370543</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.117598</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.860934</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.385329</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.140022</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.948924</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.218556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.837636</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.026457</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.110236</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.039524</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.552597</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.962038</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.752851</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.295213</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.059174</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.799737</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.334345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.336186</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.242125</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.51686</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.567982</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.079513</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.688748</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.33534</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.848694</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.619629</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.957876</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.143388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.074659</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.531966</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.741774</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.811033</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.276991</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.858236</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.680729</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.235081</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.005226</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.787824</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.317622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.909815</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.073704</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.754678</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.10024</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.546343</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.476624</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.198393</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.182059</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.939967</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.504198</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4.793308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.448113</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.263365</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.986359</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.476403</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.888124</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.752486</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.281955</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.265</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.013705</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.606093</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.932687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.227129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.140292</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.40912</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.874515</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8.133983</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.772884</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.921826</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.269856</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.907077</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5.946427</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.133972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5">
+        <v>11.43498</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.022774</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.4341</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11.216</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8.466799</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.375881</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.055505</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4.317878</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.934794</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8.254999</v>
+      </c>
+      <c r="L10" s="5">
+        <v>11.77719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11.43498</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.022774</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10.9201</v>
+      </c>
+      <c r="E11" s="5">
+        <v>11.88178</v>
+      </c>
+      <c r="F11" s="5">
+        <v>11.38868</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10.15201</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.355598</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4.574186</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.168363</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8.745015</v>
+      </c>
+      <c r="L11" s="5">
+        <v>14.12429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="5">
+        <v>12.1031</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.120528</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10.9201</v>
+      </c>
+      <c r="E12" s="5">
+        <v>11.88178</v>
+      </c>
+      <c r="F12" s="5">
+        <v>11.38868</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10.15201</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.355598</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4.574186</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.168363</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.745015</v>
+      </c>
+      <c r="L12" s="5">
+        <v>14.12429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13.06507</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.163359</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11.79018</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12.82875</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12.29634</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10.96112</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.782434</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.938745</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.500577</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9.441982</v>
+      </c>
+      <c r="L13" s="5">
+        <v>15.24998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13.2984</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.444559</v>
+      </c>
+      <c r="D14" s="5">
+        <v>16.26679</v>
+      </c>
+      <c r="E14" s="5">
+        <v>17.20481</v>
+      </c>
+      <c r="F14" s="5">
+        <v>15.34254</v>
+      </c>
+      <c r="G14" s="5">
+        <v>13.9946</v>
+      </c>
+      <c r="H14" s="1">
+        <v>7.558496</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.613124</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6.177067</v>
+      </c>
+      <c r="K14" s="5">
+        <v>13.29146</v>
+      </c>
+      <c r="L14" s="5">
+        <v>22.03229</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3266,14 +4357,551 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.375"/>
+    <col min="11" max="12" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.66108</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.840339</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.533374</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.907822</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.414547</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.534919</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.632628</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.814434</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.859803</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.414913</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.101567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.339096</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.707094</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.956953</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.122332</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.018109</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.674017</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.935023</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.150842</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3.044573</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.696708</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.427189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.879919</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.861409</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.644351</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.725438</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.523189</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.909677</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.972303</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.237648</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.894581</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.672069</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.243187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.962636</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.463143</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.262384</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.183636</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.119492</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.232269</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.59321</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.02699</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.696321</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4.385357</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.067413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.47132</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.124621</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.136905</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.580243</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.025812</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.414408</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.106904</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.33898</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.003999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4.341498</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5.016732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.512029</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.267901</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.655291</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.840162</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.457186</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.363315</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.462721</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.706646</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.486033</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5.415515</v>
+      </c>
+      <c r="L7" s="5">
+        <v>6.257794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.150733</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.012433</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.879614</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.709674</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.068617</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.047544</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.507119</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.298652</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.836144</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.024627</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.405433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.150733</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.858716</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.973351</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.101102</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.005976</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.057148</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.542727</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.41035</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.155099</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.756274</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.340489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.000649</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.572088</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.134923</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.475836</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.469963</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.301669</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.899564</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.96787</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.83275</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.154444</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.468201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.198352</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.957221</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.657941</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.837388</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.412145</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.444544</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.543626</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.814106</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.463524</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.845197</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4.038729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.263282</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.996955</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.657941</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.837388</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.412145</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.444544</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.543626</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.814106</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.463524</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.845197</v>
+      </c>
+      <c r="L12" s="2">
+        <v>4.038729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.094875</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.274249</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.657941</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.837388</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.412145</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.444544</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.543626</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.814106</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.463524</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4.845197</v>
+      </c>
+      <c r="L13" s="2">
+        <v>4.038729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.094875</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.448857</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.657941</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.837388</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.412145</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.444544</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.543626</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.814106</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.463524</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4.940012</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4.117763</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3282,14 +4910,555 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.812396</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.51725</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.487772</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.284795</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.673115</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.26255</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.83723</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.29673</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5.285775</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.740945</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.500937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.1947</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.174476</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.791211</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.597575</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.64777</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.151576</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.688819</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.230372</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6.418816</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5.729749</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5.439682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.822307</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.749148</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.196538</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.683281</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.103737</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.65534</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.23716</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.449252</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.67665</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.177818</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.915694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.535307</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.585064</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.472906</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.038161</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.595477</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.103877</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.645405</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.575612</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.829333</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5.676696</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.389315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.905615</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.73678</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.246058</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.962997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.064137</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.622824</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.382437</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.575612</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.942984</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.70339</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.500724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.787525</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.809224</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.271473</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.117966</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.805775</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.44426</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.526697</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.731569</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.093333</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.867085</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.652147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.996684</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.736667</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.363773</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.117966</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.805775</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.44426</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.526697</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.731569</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.093333</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.867085</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.652147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.316545</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.736667</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.025116</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.117966</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.805775</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.44426</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.526697</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.731569</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.093333</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.867085</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.652147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.316545</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.736667</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.994851</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.117966</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.805775</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.44426</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.526697</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.731569</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3.093333</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.867085</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.652147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.085817</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.521415</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.42832</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.939437</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.243246</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.891072</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.059734</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.388505</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.933204</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.739002</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.549717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.134253</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.563161</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.468962</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.974283</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.281694</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.925344</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.096007</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.428675</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.979832</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3.783328</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3.591798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.26466</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.675555</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.578384</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.068101</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.385209</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.017619</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.193665</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3.536826</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.105368</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3.902665</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3.705095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.26466</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.675555</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.578384</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.068101</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.385209</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.017619</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.193665</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.536826</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.105368</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3.902665</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3.705095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3298,14 +5467,551 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="9.375"/>
+    <col min="8" max="8" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="1">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F1" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-80</v>
+      </c>
+      <c r="I1" s="1">
+        <v>-90</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-100</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-110</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.501909</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.185819</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.019294</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.073471</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.17872</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.875936</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.864446</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.949215</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.595838</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6.383763</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6.220077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.355205</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.819084</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.696416</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.598291</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.932098</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.904376</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9.154736</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8.217706</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.017274</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7.816842</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.61641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.702942</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.746841</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.095248</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.163977</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.119662</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.193007</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.464954</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.070173</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4.708159</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7.22533</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.040066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.99429</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.664181</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.401758</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.441823</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.802052</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.266461</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.503827</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.277546</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11.31408</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11.31408</v>
+      </c>
+      <c r="L5" s="1">
+        <v>11.31408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.961349</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9.264014</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.128825</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.185037</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.044466</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.220456</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.806077</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.485837</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.894088</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7.471969</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7.28038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.889998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.005852</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.245329</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.693685</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.700572</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.813939</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.749199</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.285685</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.030991</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.158004</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6.000106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.985364</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.684371</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.05096</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.553561</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.533432</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.997348</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.837202</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.452429</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.1897</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.375545</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.21207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.342046</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.953956</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.298323</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.783475</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.727557</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.248063</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.097207</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.680365</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.406652</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.671526</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4.551744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.581431</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.416384</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.640205</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8.030697</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.780635</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.52087</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8.289747</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.837523</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.508053</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5.188667</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.055624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10.18641</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11.0397</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10.12971</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.415132</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.780635</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.52087</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.693748</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.837523</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6.508053</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5.188667</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5.055624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10.87393</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11.9148</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.93269</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10.16146</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7.318128</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.728516</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.693748</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.026303</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.687736</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5.188667</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5.055624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.23444</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12.92254</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12.11512</v>
+      </c>
+      <c r="E13" s="2">
+        <v>11.51072</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.47825</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.097254</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4.693748</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7.361538</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7.006817</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.188667</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5.055624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10.23444</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12.92254</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12.11512</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11.51072</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.47825</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8.097254</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.693748</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.361538</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7.006817</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.188667</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5.055624</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/5分钟MA策略.xlsx
+++ b/5分钟MA策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14880" windowHeight="7980" tabRatio="746" activeTab="7"/>
+    <workbookView windowWidth="14700" windowHeight="7515" tabRatio="746"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>止损/止盈</t>
   </si>
@@ -34,21 +34,39 @@
   <si>
     <t>注：20倍 五分之一仓，BSV最高 20 倍</t>
   </si>
+  <si>
+    <t>注：30倍 五分之一仓，XRP最高 33.33 倍</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -62,7 +80,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,28 +141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,30 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -143,40 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +180,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,13 +210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +228,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,43 +306,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,115 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,15 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,22 +465,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,13 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,16 +539,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,123 +557,120 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1044,8 +1044,8 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1213,10 +1213,10 @@
       <c r="B5">
         <v>4.378211</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>8.023858</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>7.941025</v>
       </c>
       <c r="E5">
@@ -1251,10 +1251,10 @@
       <c r="B6">
         <v>4.70863</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>8.629409</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>8.070341</v>
       </c>
       <c r="E6">
@@ -1289,10 +1289,10 @@
       <c r="B7">
         <v>5.39008</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>11.36493</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>8.831545</v>
       </c>
       <c r="E7">
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1708,7 +1708,7 @@
       <c r="H3">
         <v>6.691947</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>10.62276</v>
       </c>
       <c r="J3">
@@ -1743,19 +1743,19 @@
       <c r="G4">
         <v>8.702676</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>10.92418</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>15.4091</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>12.83639</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>12.83639</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>10.56368</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       <c r="C5">
         <v>5.81045</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>10.13275</v>
       </c>
       <c r="E5">
@@ -1781,19 +1781,19 @@
       <c r="G5">
         <v>8.484315</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>13.66675</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>11.60674</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>12.83228</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>12.51148</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>10.18759</v>
       </c>
     </row>
@@ -1819,19 +1819,19 @@
       <c r="G6">
         <v>8.767859</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>14.21911</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>16.36937</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>15.18546</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>14.80582</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>12.05579</v>
       </c>
     </row>
@@ -1857,16 +1857,16 @@
       <c r="G7">
         <v>9.123891</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>11.49492</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>12.94554</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>12.00926</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>11.70903</v>
       </c>
       <c r="L7">
@@ -1883,31 +1883,31 @@
       <c r="C8">
         <v>8.037421</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>12.58675</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>10.5109</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>14.42689</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>13.01124</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>16.78278</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>16.78278</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>11.3996</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>16.38459</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>13.33607</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       <c r="J9">
         <v>8.437915</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>8.226966</v>
       </c>
       <c r="L9">
@@ -2151,608 +2151,608 @@
   <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="9" style="4"/>
-    <col min="5" max="6" width="9.375" style="4"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="10.25" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="4"/>
-    <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="9.375" style="4"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="9.375" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="9.375" style="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="1">
         <v>-20</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="1">
         <v>-30</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="1">
         <v>-40</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="1">
         <v>-50</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="1">
         <v>-60</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="1">
         <v>-70</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="1">
         <v>-80</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="1">
         <v>-90</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="1">
         <v>-100</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="1">
         <v>-110</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="1">
         <v>-120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>10.31087</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>14.48917</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>13.51773</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>8.714223</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>6.558267</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>6.804646</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>6.565736</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>4.875553</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>4.053077</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>8.766907</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>8.374359</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>10.08665</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>11.95791</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>10.7456</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>13.00402</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>9.933909</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <v>16.01784</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <v>16.93974</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <v>15.62879</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>13.75225</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>12.46489</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>11.90676</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>10.57041</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>12.28619</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>11.26328</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>13.59266</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>10.38358</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>16.7429</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>17.70654</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>16.33625</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>14.95472</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>12.22293</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>11.67564</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>17.20799</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>7.343056</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>13.19194</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>9.980892</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>8.131849</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>12.29406</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>13.00165</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>11.99546</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>11.2676</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>12.57283</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>12.00986</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>13.66721</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>6.457011</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>17.50895</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>15.20984</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>12.86839</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>14.04036</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>14.84846</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>13.69935</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>12.49846</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>14.09413</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>13.46305</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>70</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>7.140701</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>6.981596</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>19.92602</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>16.30319</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>14.79683</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>15.04964</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>15.91583</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>14.68412</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>13.65347</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>14.55645</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>13.90466</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>80</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>6.000988</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>11.16977</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>17.13433</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>14.22859</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>12.02069</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>14.145</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>8.901349</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>8.212481</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>6.831282</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>7.149947</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>6.523989</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>2.952911</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>4.210097</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>18.27702</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>15.47114</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>13.20898</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>14.28157</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>15.10355</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>13.9347</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>13.38496</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>18.45977</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>17.63321</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>2.952911</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>4.210097</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>8.195848</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>6.701113</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>5.519363</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>5.749218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>5.849227</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>5.183537</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>6.529107</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>8.927553</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>8.985394</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>3.021196</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>4.307455</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>8.385374</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>7.491677</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>5.646996</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>6.427484</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>6.53929</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>5.795066</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>7.299378</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>9.980782</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>9.193178</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>120</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>3.080081</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>2.204683</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>8.548809</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>7.637693</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>3.176155</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>6.552758</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>6.666744</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>5.908014</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>7.441647</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>10.17531</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>9.372356</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>130</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>3.642781</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>2.204683</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>4.521117</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>9.390096</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>3.176155</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>8.668097</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>9.166993</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>8.457565</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>11.10958</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>10.63346</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>9.794348</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>140</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>3.642781</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>2.204683</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>4.521117</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>9.390096</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>3.176155</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>8.668097</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>9.166993</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>8.457565</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>11.10958</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>10.63346</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>4.949594</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>-20</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>-30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>-40</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="1">
         <v>-50</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="1">
         <v>-60</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>-70</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="1">
         <v>-80</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <v>-90</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="1">
         <v>-100</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="1">
         <v>-110</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="1">
         <v>-120</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>11.27717</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>11.27717</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>12.89289</v>
       </c>
       <c r="E19" s="1">
@@ -2781,22 +2781,22 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>8.812762</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>10.20501</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>11.36408</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>13.02473</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>11.34572</v>
       </c>
       <c r="G20" s="2">
@@ -2808,7 +2808,7 @@
       <c r="I20" s="2">
         <v>14.47671</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>13.36616</v>
       </c>
       <c r="K20" s="1">
@@ -2819,25 +2819,25 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>40</v>
       </c>
       <c r="B21" s="1">
         <v>9.609033</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>10.97778</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>12.3937</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>14.17791</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>12.35025</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>17.33336</v>
       </c>
       <c r="H21" s="2">
@@ -2857,16 +2857,16 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>50</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>7.95824</v>
       </c>
       <c r="C22" s="1">
         <v>7.570292</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>10.06272</v>
       </c>
       <c r="E22" s="1">
@@ -2895,7 +2895,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>60</v>
       </c>
       <c r="B23" s="1">
@@ -2904,10 +2904,10 @@
       <c r="C23" s="1">
         <v>5.768943</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>7.116928</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>7.617909</v>
       </c>
       <c r="F23" s="1">
@@ -2933,7 +2933,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>70</v>
       </c>
       <c r="B24" s="1">
@@ -2942,19 +2942,19 @@
       <c r="C24" s="1">
         <v>7.492906</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>8.814502</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>9.691422</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>9.314069</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>9.395349</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>8.754985</v>
       </c>
       <c r="I24" s="1">
@@ -2971,16 +2971,16 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>80</v>
       </c>
       <c r="B25" s="1">
         <v>5.585439</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>10.47556</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>6.448601</v>
       </c>
       <c r="E25" s="1">
@@ -3009,7 +3009,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>90</v>
       </c>
       <c r="B26" s="1">
@@ -3018,10 +3018,10 @@
       <c r="C26" s="1">
         <v>4.244017</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>4.594594</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>3.880176</v>
       </c>
       <c r="F26" s="1">
@@ -3030,7 +3030,7 @@
       <c r="G26" s="1">
         <v>3.993835</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>3.635076</v>
       </c>
       <c r="I26" s="1">
@@ -3039,15 +3039,15 @@
       <c r="J26" s="1">
         <v>3.185906</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>5.789816</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>5.355769</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>100</v>
       </c>
       <c r="B27" s="1">
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>110</v>
       </c>
       <c r="B28" s="1">
@@ -3123,7 +3123,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>120</v>
       </c>
       <c r="B29" s="1">
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>130</v>
       </c>
       <c r="B30" s="1">
@@ -3199,7 +3199,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>140</v>
       </c>
       <c r="B31" s="1">
@@ -3237,7 +3237,7 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3259,540 +3259,540 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="9.375" style="4"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9.375" style="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="1">
         <v>-20</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="1">
         <v>-30</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="1">
         <v>-40</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="1">
         <v>-50</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="1">
         <v>-60</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="1">
         <v>-70</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="1">
         <v>-80</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="1">
         <v>-90</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="1">
         <v>-100</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="1">
         <v>-110</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="1">
         <v>-120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>6.549172</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>9.889473</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>11.52776</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>8.739627</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>6.06392</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>3.921604</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>3.375004</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>5.399484</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>3.287249</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>3.184024</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>3.823371</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>7.654938</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>11.86856</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>13.99192</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>8.562191</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>6.704137</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>5.469909</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>5.133381</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>6.023901</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>6.642581</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>5.974207</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>6.159791</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>10.26241</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>10.36469</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>11.80828</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>7.918555</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>6.866031</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>5.299378</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>4.759202</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>5.380339</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>4.901609</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>4.014514</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>6.203496</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>50</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>9.093446</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>9.65729</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>13.55639</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>11.85948</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>9.436275</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>7.659325</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>7.360011</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>8.847452</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>7.768597</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>7.015773</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>7.207853</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>9.034633</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>9.742936</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>10.23619</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>7.863161</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>6.803303</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>7.072442</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>7.027958</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>8.448293</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>6.006824</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>5.424728</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>6.020255</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>70</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>7.910585</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>15.05637</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>14.01397</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>11.01706</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>9.933869</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>8.074732</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>8.023946</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>9.645567</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>6.63065</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>5.988101</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>6.645474</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>80</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>11.13033</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>8.478958</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>7.940886</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>7.587371</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>6.841383</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>5.633116</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>5.594969</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>6.565564</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>5.779868</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>5.219765</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>5.79279</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>17.76456</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>15.68271</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>17.01526</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>7.47125</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>6.889785</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>5.804898</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>5.902866</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>7.095822</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>7.661903</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>7.096841</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>6.564809</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>7.307493</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>10.60473</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>8.588856</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>8.393092</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>7.739885</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>6.521139</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>6.631195</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>7.971343</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>8.326906</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>7.712801</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>7.134591</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>7.960941</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>11.79883</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>9.95869</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>9.754862</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>9.38224</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>8.088718</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>8.421067</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>10.36985</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>9.032759</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>8.366596</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>7.739374</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>120</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>7.93944</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>7.518745</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>9.337893</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>9.021029</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>9.11439</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>8.313629</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>9.008132</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>8.379892</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>7.781564</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>7.212414</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>6.671718</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>130</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>8.067463</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>7.518745</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>9.550764</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>17.4965</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>18.07934</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>17.86455</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>19.82742</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="2">
         <v>19.35533</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>13.41461</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>12.75226</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>12.10669</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>140</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>8.102773</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>7.889461</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>11.44388</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>11.3073</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>11.68396</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>10.9053</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>14.40195</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>14.05905</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>13.71614</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>13.37324</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>13.03034</v>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4051,10 +4051,10 @@
       <c r="B7" s="1">
         <v>4.909815</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3.073704</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3.754678</v>
       </c>
       <c r="E7" s="1">
@@ -4124,13 +4124,13 @@
       <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8.227129</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>4.140292</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>5.40912</v>
       </c>
       <c r="E9" s="1">
@@ -4162,7 +4162,7 @@
       <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>11.43498</v>
       </c>
       <c r="C10" s="1">
@@ -4171,7 +4171,7 @@
       <c r="D10" s="1">
         <v>10.4341</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>11.216</v>
       </c>
       <c r="F10" s="1">
@@ -4192,7 +4192,7 @@
       <c r="K10" s="1">
         <v>8.254999</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="2">
         <v>11.77719</v>
       </c>
     </row>
@@ -4200,19 +4200,19 @@
       <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>11.43498</v>
       </c>
       <c r="C11" s="1">
         <v>8.022774</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>10.9201</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>11.88178</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>11.38868</v>
       </c>
       <c r="G11" s="1">
@@ -4230,7 +4230,7 @@
       <c r="K11" s="1">
         <v>8.745015</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="2">
         <v>14.12429</v>
       </c>
     </row>
@@ -4238,19 +4238,19 @@
       <c r="A12" s="1">
         <v>120</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>12.1031</v>
       </c>
       <c r="C12" s="1">
         <v>8.120528</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>10.9201</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="2">
         <v>11.88178</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>11.38868</v>
       </c>
       <c r="G12" s="1">
@@ -4268,7 +4268,7 @@
       <c r="K12" s="1">
         <v>8.745015</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="2">
         <v>14.12429</v>
       </c>
     </row>
@@ -4276,28 +4276,28 @@
       <c r="A13" s="1">
         <v>130</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>13.06507</v>
       </c>
       <c r="C13" s="1">
         <v>9.163359</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>11.79018</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>12.82875</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>12.29634</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>10.96112</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>5.782434</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>4.938745</v>
       </c>
       <c r="J13" s="1">
@@ -4306,7 +4306,7 @@
       <c r="K13" s="1">
         <v>9.441982</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="2">
         <v>15.24998</v>
       </c>
     </row>
@@ -4314,22 +4314,22 @@
       <c r="A14" s="1">
         <v>140</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>13.2984</v>
       </c>
       <c r="C14" s="1">
         <v>9.444559</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>16.26679</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="2">
         <v>17.20481</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="2">
         <v>15.34254</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>13.9946</v>
       </c>
       <c r="H14" s="1">
@@ -4341,10 +4341,10 @@
       <c r="J14" s="1">
         <v>6.177067</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="2">
         <v>13.29146</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="2">
         <v>22.03229</v>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4449,7 +4449,7 @@
       <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>5.339096</v>
       </c>
       <c r="C3" s="1">
@@ -4569,7 +4569,7 @@
       <c r="C6" s="1">
         <v>3.124621</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>5.136905</v>
       </c>
       <c r="E6" s="1">
@@ -4593,7 +4593,7 @@
       <c r="K6" s="1">
         <v>4.341498</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>5.016732</v>
       </c>
     </row>
@@ -4604,10 +4604,10 @@
       <c r="B7" s="1">
         <v>3.512029</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4.267901</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>6.655291</v>
       </c>
       <c r="E7" s="1">
@@ -4628,10 +4628,10 @@
       <c r="J7" s="1">
         <v>3.486033</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <v>5.415515</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <v>6.257794</v>
       </c>
     </row>
@@ -4677,13 +4677,13 @@
       <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2.150733</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1.858716</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2.973351</v>
       </c>
       <c r="E9" s="1">
@@ -4715,7 +4715,7 @@
       <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3.000649</v>
       </c>
       <c r="C10" s="1">
@@ -4724,7 +4724,7 @@
       <c r="D10" s="1">
         <v>2.134923</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1.475836</v>
       </c>
       <c r="F10" s="1">
@@ -4745,7 +4745,7 @@
       <c r="K10" s="1">
         <v>3.154444</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>3.468201</v>
       </c>
     </row>
@@ -4753,19 +4753,19 @@
       <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>3.198352</v>
       </c>
       <c r="C11" s="1">
         <v>1.957221</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.657941</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1.837388</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2.412145</v>
       </c>
       <c r="G11" s="1">
@@ -4783,7 +4783,7 @@
       <c r="K11" s="1">
         <v>4.845197</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>4.038729</v>
       </c>
     </row>
@@ -4791,19 +4791,19 @@
       <c r="A12" s="1">
         <v>120</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>3.263282</v>
       </c>
       <c r="C12" s="1">
         <v>1.996955</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>2.657941</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1.837388</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2.412145</v>
       </c>
       <c r="G12" s="1">
@@ -4821,7 +4821,7 @@
       <c r="K12" s="1">
         <v>4.845197</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>4.038729</v>
       </c>
     </row>
@@ -4829,28 +4829,28 @@
       <c r="A13" s="1">
         <v>130</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>3.094875</v>
       </c>
       <c r="C13" s="1">
         <v>2.274249</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.657941</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1.837388</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>2.412145</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>1.444544</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>1.543626</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>2.814106</v>
       </c>
       <c r="J13" s="1">
@@ -4859,7 +4859,7 @@
       <c r="K13" s="1">
         <v>4.845197</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>4.038729</v>
       </c>
     </row>
@@ -4867,22 +4867,22 @@
       <c r="A14" s="1">
         <v>140</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>3.094875</v>
       </c>
       <c r="C14" s="1">
         <v>2.448857</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.657941</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1.837388</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>2.412145</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>1.444544</v>
       </c>
       <c r="H14" s="1">
@@ -4894,10 +4894,10 @@
       <c r="J14" s="1">
         <v>3.463524</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>4.940012</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>4.117763</v>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5001,7 +5001,7 @@
       <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.1947</v>
       </c>
       <c r="C3" s="1">
@@ -5028,10 +5028,10 @@
       <c r="J3" s="1">
         <v>6.418816</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>5.729749</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>5.439682</v>
       </c>
     </row>
@@ -5077,19 +5077,19 @@
       <c r="A5" s="1">
         <v>50</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>5.535307</v>
       </c>
       <c r="C5" s="1">
         <v>4.585064</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>5.472906</v>
       </c>
       <c r="E5" s="1">
         <v>4.038161</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>5.595477</v>
       </c>
       <c r="G5" s="1">
@@ -5104,7 +5104,7 @@
       <c r="J5" s="1">
         <v>3.829333</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>5.676696</v>
       </c>
       <c r="L5" s="1">
@@ -5115,13 +5115,13 @@
       <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>5.905615</v>
       </c>
       <c r="C6" s="1">
         <v>4.73678</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>4.246058</v>
       </c>
       <c r="E6" s="1">
@@ -5145,7 +5145,7 @@
       <c r="K6" s="1">
         <v>2.70339</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>2.500724</v>
       </c>
     </row>
@@ -5156,10 +5156,10 @@
       <c r="B7" s="1">
         <v>3.787525</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3.809224</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3.271473</v>
       </c>
       <c r="E7" s="1">
@@ -5180,10 +5180,10 @@
       <c r="J7" s="1">
         <v>3.093333</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>2.867085</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>2.652147</v>
       </c>
     </row>
@@ -5229,13 +5229,13 @@
       <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4.316545</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2.736667</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>4.025116</v>
       </c>
       <c r="E9" s="1">
@@ -5267,7 +5267,7 @@
       <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4.316545</v>
       </c>
       <c r="C10" s="1">
@@ -5276,7 +5276,7 @@
       <c r="D10" s="1">
         <v>3.994851</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2.117966</v>
       </c>
       <c r="F10" s="1">
@@ -5297,7 +5297,7 @@
       <c r="K10" s="1">
         <v>2.867085</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>2.652147</v>
       </c>
     </row>
@@ -5305,19 +5305,19 @@
       <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4.085817</v>
       </c>
       <c r="C11" s="1">
         <v>3.521415</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>3.42832</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>2.939437</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>3.243246</v>
       </c>
       <c r="G11" s="1">
@@ -5335,7 +5335,7 @@
       <c r="K11" s="1">
         <v>3.739002</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>3.549717</v>
       </c>
     </row>
@@ -5343,19 +5343,19 @@
       <c r="A12" s="1">
         <v>120</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>4.134253</v>
       </c>
       <c r="C12" s="1">
         <v>3.563161</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>3.468962</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2.974283</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>3.281694</v>
       </c>
       <c r="G12" s="1">
@@ -5373,7 +5373,7 @@
       <c r="K12" s="1">
         <v>3.783328</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>3.591798</v>
       </c>
     </row>
@@ -5381,28 +5381,28 @@
       <c r="A13" s="1">
         <v>130</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>4.26466</v>
       </c>
       <c r="C13" s="1">
         <v>3.675555</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>3.578384</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>3.068101</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.385209</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>3.017619</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>3.193665</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>3.536826</v>
       </c>
       <c r="J13" s="1">
@@ -5411,7 +5411,7 @@
       <c r="K13" s="1">
         <v>3.902665</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>3.705095</v>
       </c>
     </row>
@@ -5419,22 +5419,22 @@
       <c r="A14" s="1">
         <v>140</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>4.26466</v>
       </c>
       <c r="C14" s="1">
         <v>3.675555</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>3.578384</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>3.068101</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>3.385209</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>3.017619</v>
       </c>
       <c r="H14" s="1">
@@ -5446,15 +5446,15 @@
       <c r="J14" s="1">
         <v>4.105368</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>3.902665</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>3.705095</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5467,10 +5467,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5559,7 +5559,7 @@
       <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.355205</v>
       </c>
       <c r="C3" s="1">
@@ -5621,7 +5621,7 @@
       <c r="I4" s="1">
         <v>5.070173</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>4.708159</v>
       </c>
       <c r="K4" s="1">
@@ -5659,13 +5659,13 @@
       <c r="I5" s="1">
         <v>9.277546</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>11.31408</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>11.31408</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>11.31408</v>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
       <c r="C6" s="1">
         <v>9.264014</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>8.128825</v>
       </c>
       <c r="E6" s="1">
@@ -5697,13 +5697,13 @@
       <c r="I6" s="1">
         <v>6.485837</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>4.894088</v>
       </c>
       <c r="K6" s="1">
         <v>7.471969</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>7.28038</v>
       </c>
     </row>
@@ -5714,10 +5714,10 @@
       <c r="B7" s="1">
         <v>7.889998</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>8.005852</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>7.245329</v>
       </c>
       <c r="E7" s="1">
@@ -5738,10 +5738,10 @@
       <c r="J7" s="1">
         <v>5.030991</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>6.158004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>6.000106</v>
       </c>
     </row>
@@ -5787,13 +5787,13 @@
       <c r="A9" s="1">
         <v>90</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8.342046</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7.953956</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>7.298323</v>
       </c>
       <c r="E9" s="1">
@@ -5825,7 +5825,7 @@
       <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9.581431</v>
       </c>
       <c r="C10" s="1">
@@ -5834,7 +5834,7 @@
       <c r="D10" s="1">
         <v>8.640205</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8.030697</v>
       </c>
       <c r="F10" s="1">
@@ -5855,7 +5855,7 @@
       <c r="K10" s="1">
         <v>5.188667</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>5.055624</v>
       </c>
     </row>
@@ -5866,16 +5866,16 @@
       <c r="B11" s="2">
         <v>10.18641</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>11.0397</v>
       </c>
       <c r="D11" s="2">
         <v>10.12971</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>9.415132</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>6.780635</v>
       </c>
       <c r="G11" s="1">
@@ -5893,7 +5893,7 @@
       <c r="K11" s="1">
         <v>5.188667</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>5.055624</v>
       </c>
     </row>
@@ -5904,7 +5904,7 @@
       <c r="B12" s="2">
         <v>10.87393</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>11.9148</v>
       </c>
       <c r="D12" s="2">
@@ -5913,7 +5913,7 @@
       <c r="E12" s="2">
         <v>10.16146</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>7.318128</v>
       </c>
       <c r="G12" s="1">
@@ -5931,7 +5931,7 @@
       <c r="K12" s="1">
         <v>5.188667</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>5.055624</v>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       <c r="B13" s="2">
         <v>10.23444</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>12.92254</v>
       </c>
       <c r="D13" s="2">
@@ -5951,16 +5951,16 @@
       <c r="E13" s="2">
         <v>11.51072</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>8.47825</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>8.097254</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>4.693748</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>7.361538</v>
       </c>
       <c r="J13" s="1">
@@ -5969,7 +5969,7 @@
       <c r="K13" s="1">
         <v>5.188667</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>5.055624</v>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       <c r="B14" s="2">
         <v>10.23444</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>12.92254</v>
       </c>
       <c r="D14" s="2">
@@ -5989,10 +5989,10 @@
       <c r="E14" s="2">
         <v>11.51072</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>8.47825</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>8.097254</v>
       </c>
       <c r="H14" s="1">
@@ -6004,11 +6004,19 @@
       <c r="J14" s="1">
         <v>7.006817</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>5.188667</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>5.055624</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
